--- a/user-data/population-rural-urban/population-rural-urban.xlsx
+++ b/user-data/population-rural-urban/population-rural-urban.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1314,9 +1314,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1696,22 +1693,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11">
@@ -1727,11 +1724,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/population-rural-urban/population-rural-urban.xlsx
+++ b/user-data/population-rural-urban/population-rural-urban.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -1323,7 +1323,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1726,6 +1729,11 @@
         <v>438</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/population-rural-urban/population-rural-urban.xlsx
+++ b/user-data/population-rural-urban/population-rural-urban.xlsx
@@ -69,7 +69,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -177,7 +177,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -214,12 +214,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -300,6 +294,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -315,7 +315,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -993,7 +993,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1011,7 +1011,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1185,7 +1185,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1209,7 +1209,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1230,16 +1230,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1332,7 +1332,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -9154,10 +9154,10 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>  9107589</v>
+        <v>  9951128</v>
       </c>
       <c r="E436" t="n">
-        <v>  7023743</v>
+        <v>  2271743</v>
       </c>
     </row>
     <row r="437">
@@ -9171,10 +9171,10 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>  9163278</v>
+        <v> 10139838</v>
       </c>
       <c r="E437" t="n">
-        <v>  7256895</v>
+        <v>  2332748</v>
       </c>
     </row>
     <row r="438">
@@ -9188,10 +9188,10 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>  9195755</v>
+        <v> 10317439</v>
       </c>
       <c r="E438" t="n">
-        <v>  7479232</v>
+        <v>  2391897</v>
       </c>
     </row>
     <row r="439">
@@ -9205,10 +9205,10 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>  9213643</v>
+        <v> 10484988</v>
       </c>
       <c r="E439" t="n">
-        <v>  7696158</v>
+        <v>  2449381</v>
       </c>
     </row>
     <row r="440">
@@ -9222,10 +9222,10 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>  9227933</v>
+        <v> 10643770</v>
       </c>
       <c r="E440" t="n">
-        <v>  7916392</v>
+        <v>  2505616</v>
       </c>
     </row>
     <row r="441">
@@ -9239,10 +9239,10 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>  9247343</v>
+        <v> 10795463</v>
       </c>
       <c r="E441" t="n">
-        <v>  8146651</v>
+        <v>  2560961</v>
       </c>
     </row>
     <row r="442">
@@ -9256,10 +9256,10 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>  9272769</v>
+        <v> 10939877</v>
       </c>
       <c r="E442" t="n">
-        <v>  8389648</v>
+        <v>  2615177</v>
       </c>
     </row>
     <row r="443">
@@ -9273,10 +9273,10 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>  9285767</v>
+        <v> 11078527</v>
       </c>
       <c r="E443" t="n">
-        <v>  8663294</v>
+        <v>  2668761</v>
       </c>
     </row>
     <row r="444">
@@ -9290,10 +9290,10 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>  9306414</v>
+        <v> 11217517</v>
       </c>
       <c r="E444" t="n">
-        <v>  8953630</v>
+        <v>  2723001</v>
       </c>
     </row>
     <row r="445">
@@ -9307,10 +9307,10 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>  9337874</v>
+        <v> 11362622</v>
       </c>
       <c r="E445" t="n">
-        <v>  9263468</v>
+        <v>  2781603</v>
       </c>
     </row>
     <row r="446">
@@ -9324,10 +9324,10 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>  9382594</v>
+        <v> 11519238</v>
       </c>
       <c r="E446" t="n">
-        <v>  9593994</v>
+        <v>  2845693</v>
       </c>
     </row>
     <row r="447">
@@ -9341,10 +9341,10 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>  9441938</v>
+        <v> 11689510</v>
       </c>
       <c r="E447" t="n">
-        <v>  9948016</v>
+        <v>  2916352</v>
       </c>
     </row>
     <row r="448">
@@ -9358,10 +9358,10 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>  9514946</v>
+        <v> 11871352</v>
       </c>
       <c r="E448" t="n">
-        <v> 10324804</v>
+        <v>  2993294</v>
       </c>
     </row>
     <row r="449">
@@ -9375,10 +9375,10 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>  9596100</v>
+        <v> 12059854</v>
       </c>
       <c r="E449" t="n">
-        <v> 10719986</v>
+        <v>  3075315</v>
       </c>
     </row>
     <row r="450">
@@ -9392,10 +9392,10 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>  9951128</v>
+        <v>  8673914</v>
       </c>
       <c r="E450" t="n">
-        <v>  2271743</v>
+        <v>  7253799</v>
       </c>
     </row>
     <row r="451">
@@ -9409,10 +9409,10 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v> 10139838</v>
+        <v>  8806510</v>
       </c>
       <c r="E451" t="n">
-        <v>  2332748</v>
+        <v>  7543930</v>
       </c>
     </row>
     <row r="452">
@@ -9426,10 +9426,10 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v> 10317439</v>
+        <v>  8938452</v>
       </c>
       <c r="E452" t="n">
-        <v>  2391897</v>
+        <v>  7843592</v>
       </c>
     </row>
     <row r="453">
@@ -9443,10 +9443,10 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v> 10484988</v>
+        <v>  9070122</v>
       </c>
       <c r="E453" t="n">
-        <v>  2449381</v>
+        <v>  8153155</v>
       </c>
     </row>
     <row r="454">
@@ -9460,10 +9460,10 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v> 10643770</v>
+        <v>  9201584</v>
       </c>
       <c r="E454" t="n">
-        <v>  2505616</v>
+        <v>  8473376</v>
       </c>
     </row>
     <row r="455">
@@ -9477,10 +9477,10 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v> 10795463</v>
+        <v>  9333497</v>
       </c>
       <c r="E455" t="n">
-        <v>  2560961</v>
+        <v>  8804237</v>
       </c>
     </row>
     <row r="456">
@@ -9494,10 +9494,10 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v> 10939877</v>
+        <v>  9465473</v>
       </c>
       <c r="E456" t="n">
-        <v>  2615177</v>
+        <v>  9146464</v>
       </c>
     </row>
     <row r="457">
@@ -9511,10 +9511,10 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v> 11078527</v>
+        <v>  9598301</v>
       </c>
       <c r="E457" t="n">
-        <v>  2668761</v>
+        <v>  9499375</v>
       </c>
     </row>
     <row r="458">
@@ -9528,10 +9528,10 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v> 11217517</v>
+        <v>  9731478</v>
       </c>
       <c r="E458" t="n">
-        <v>  2723001</v>
+        <v>  9863548</v>
       </c>
     </row>
     <row r="459">
@@ -9545,10 +9545,10 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v> 11362622</v>
+        <v>  9865408</v>
       </c>
       <c r="E459" t="n">
-        <v>  2781603</v>
+        <v> 10238537</v>
       </c>
     </row>
     <row r="460">
@@ -9562,10 +9562,10 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v> 11519238</v>
+        <v>  9999506</v>
       </c>
       <c r="E460" t="n">
-        <v>  2845693</v>
+        <v> 10624837</v>
       </c>
     </row>
     <row r="461">
@@ -9579,10 +9579,10 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v> 11689510</v>
+        <v> 10134066</v>
       </c>
       <c r="E461" t="n">
-        <v>  2916352</v>
+        <v> 11022206</v>
       </c>
     </row>
     <row r="462">
@@ -9596,10 +9596,10 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v> 11871352</v>
+        <v> 10268916</v>
       </c>
       <c r="E462" t="n">
-        <v>  2993294</v>
+        <v> 11430715</v>
       </c>
     </row>
     <row r="463">
@@ -9613,10 +9613,10 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v> 12059854</v>
+        <v> 10403726</v>
       </c>
       <c r="E463" t="n">
-        <v>  3075315</v>
+        <v> 11850233</v>
       </c>
     </row>
     <row r="464">
@@ -9630,10 +9630,10 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>  8673914</v>
+        <v>  6314558</v>
       </c>
       <c r="E464" t="n">
-        <v>  7253799</v>
+        <v> 24455142</v>
       </c>
     </row>
     <row r="465">
@@ -9647,10 +9647,10 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>  8806510</v>
+        <v>  6275436</v>
       </c>
       <c r="E465" t="n">
-        <v>  7543930</v>
+        <v> 24806464</v>
       </c>
     </row>
     <row r="466">
@@ -9664,10 +9664,10 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>  8938452</v>
+        <v>  6307525</v>
       </c>
       <c r="E466" t="n">
-        <v>  7843592</v>
+        <v> 25054475</v>
       </c>
     </row>
     <row r="467">
@@ -9681,10 +9681,10 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>  9070122</v>
+        <v>  6345653</v>
       </c>
       <c r="E467" t="n">
-        <v>  8153155</v>
+        <v> 25330347</v>
       </c>
     </row>
     <row r="468">
@@ -9698,10 +9698,10 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>  9201584</v>
+        <v>  6384602</v>
       </c>
       <c r="E468" t="n">
-        <v>  8473376</v>
+        <v> 25610398</v>
       </c>
     </row>
     <row r="469">
@@ -9715,10 +9715,10 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>  9333497</v>
+        <v>  6422979</v>
       </c>
       <c r="E469" t="n">
-        <v>  8804237</v>
+        <v> 25889021</v>
       </c>
     </row>
     <row r="470">
@@ -9732,10 +9732,10 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>  9465473</v>
+        <v>  6444726</v>
       </c>
       <c r="E470" t="n">
-        <v>  9146464</v>
+        <v> 26125779</v>
       </c>
     </row>
     <row r="471">
@@ -9749,10 +9749,10 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>  9598301</v>
+        <v>  6447349</v>
       </c>
       <c r="E471" t="n">
-        <v>  9499375</v>
+        <v> 26440579</v>
       </c>
     </row>
     <row r="472">
@@ -9766,10 +9766,10 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>  9731478</v>
+        <v>  6456994</v>
       </c>
       <c r="E472" t="n">
-        <v>  9863548</v>
+        <v> 26788779</v>
       </c>
     </row>
     <row r="473">
@@ -9783,10 +9783,10 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>  9865408</v>
+        <v>  6470810</v>
       </c>
       <c r="E473" t="n">
-        <v> 10238537</v>
+        <v> 27157761</v>
       </c>
     </row>
     <row r="474">
@@ -9800,10 +9800,10 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>  9999506</v>
+        <v>  6482425</v>
       </c>
       <c r="E474" t="n">
-        <v> 10624837</v>
+        <v> 27522849</v>
       </c>
     </row>
     <row r="475">
@@ -9817,10 +9817,10 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v> 10134066</v>
+        <v>  6485634</v>
       </c>
       <c r="E475" t="n">
-        <v> 11022206</v>
+        <v> 27857146</v>
       </c>
     </row>
     <row r="476">
@@ -9834,10 +9834,10 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v> 10268916</v>
+        <v>  6501489</v>
       </c>
       <c r="E476" t="n">
-        <v> 11430715</v>
+        <v> 28252823</v>
       </c>
     </row>
     <row r="477">
@@ -9851,10 +9851,10 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v> 10403726</v>
+        <v>  6514131</v>
       </c>
       <c r="E477" t="n">
-        <v> 11850233</v>
+        <v> 28644173</v>
       </c>
     </row>
     <row r="478">
@@ -9868,10 +9868,10 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>  6314558</v>
+        <v>   206016</v>
       </c>
       <c r="E478" t="n">
-        <v> 24455142</v>
+        <v>   236410</v>
       </c>
     </row>
     <row r="479">
@@ -9885,10 +9885,10 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>  6275436</v>
+        <v>   206062</v>
       </c>
       <c r="E479" t="n">
-        <v> 24806464</v>
+        <v>   244750</v>
       </c>
     </row>
     <row r="480">
@@ -9902,10 +9902,10 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>  6307525</v>
+        <v>   205943</v>
       </c>
       <c r="E480" t="n">
-        <v> 25054475</v>
+        <v>   253197</v>
       </c>
     </row>
     <row r="481">
@@ -9919,10 +9919,10 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>  6345653</v>
+        <v>   205467</v>
       </c>
       <c r="E481" t="n">
-        <v> 25330347</v>
+        <v>   261472</v>
       </c>
     </row>
     <row r="482">
@@ -9936,10 +9936,10 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>  6384602</v>
+        <v>   204367</v>
       </c>
       <c r="E482" t="n">
-        <v> 25610398</v>
+        <v>   269210</v>
       </c>
     </row>
     <row r="483">
@@ -9953,10 +9953,10 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>  6422979</v>
+        <v>   202522</v>
       </c>
       <c r="E483" t="n">
-        <v> 25889021</v>
+        <v>   276129</v>
       </c>
     </row>
     <row r="484">
@@ -9970,10 +9970,10 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>  6444726</v>
+        <v>   199865</v>
       </c>
       <c r="E484" t="n">
-        <v> 26125779</v>
+        <v>   282075</v>
       </c>
     </row>
     <row r="485">
@@ -9987,10 +9987,10 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>  6447349</v>
+        <v>   196566</v>
       </c>
       <c r="E485" t="n">
-        <v> 26440579</v>
+        <v>   287147</v>
       </c>
     </row>
     <row r="486">
@@ -10004,10 +10004,10 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>  6456994</v>
+        <v>   192920</v>
       </c>
       <c r="E486" t="n">
-        <v> 26788779</v>
+        <v>   291731</v>
       </c>
     </row>
     <row r="487">
@@ -10021,10 +10021,10 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>  6470810</v>
+        <v>   189351</v>
       </c>
       <c r="E487" t="n">
-        <v> 27157761</v>
+        <v>   296363</v>
       </c>
     </row>
     <row r="488">
@@ -10038,10 +10038,10 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>  6482425</v>
+        <v>   186103</v>
       </c>
       <c r="E488" t="n">
-        <v> 27522849</v>
+        <v>   301498</v>
       </c>
     </row>
     <row r="489">
@@ -10055,10 +10055,10 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>  6485634</v>
+        <v>   183350</v>
       </c>
       <c r="E489" t="n">
-        <v> 27857146</v>
+        <v>   307206</v>
       </c>
     </row>
     <row r="490">
@@ -10072,10 +10072,10 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>  6501489</v>
+        <v>   181005</v>
       </c>
       <c r="E490" t="n">
-        <v> 28252823</v>
+        <v>   313396</v>
       </c>
     </row>
     <row r="491">
@@ -10089,10 +10089,10 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>  6514131</v>
+        <v>   178969</v>
       </c>
       <c r="E491" t="n">
-        <v> 28644173</v>
+        <v>   319928</v>
       </c>
     </row>
     <row r="492">
@@ -10106,10 +10106,10 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>   206016</v>
+        <v>  2268890</v>
       </c>
       <c r="E492" t="n">
-        <v>   236410</v>
+        <v>  1369426</v>
       </c>
     </row>
     <row r="493">
@@ -10123,10 +10123,10 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>   206062</v>
+        <v>  2306879</v>
       </c>
       <c r="E493" t="n">
-        <v>   244750</v>
+        <v>  1397166</v>
       </c>
     </row>
     <row r="494">
@@ -10140,10 +10140,10 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>   205943</v>
+        <v>  2343153</v>
       </c>
       <c r="E494" t="n">
-        <v>   253197</v>
+        <v>  1424095</v>
       </c>
     </row>
     <row r="495">
@@ -10157,10 +10157,10 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>   205467</v>
+        <v>  2378817</v>
       </c>
       <c r="E495" t="n">
-        <v>   261472</v>
+        <v>  1450819</v>
       </c>
     </row>
     <row r="496">
@@ -10174,10 +10174,10 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>   204367</v>
+        <v>  2415353</v>
       </c>
       <c r="E496" t="n">
-        <v>   269210</v>
+        <v>  1478242</v>
       </c>
     </row>
     <row r="497">
@@ -10191,10 +10191,10 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>   202522</v>
+        <v>  2453142</v>
       </c>
       <c r="E497" t="n">
-        <v>   276129</v>
+        <v>  1507755</v>
       </c>
     </row>
     <row r="498">
@@ -10208,10 +10208,10 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>   199865</v>
+        <v>  2492524</v>
       </c>
       <c r="E498" t="n">
-        <v>   282075</v>
+        <v>  1539578</v>
       </c>
     </row>
     <row r="499">
@@ -10225,10 +10225,10 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>   196566</v>
+        <v>  2533216</v>
       </c>
       <c r="E499" t="n">
-        <v>   287147</v>
+        <v>  1573681</v>
       </c>
     </row>
     <row r="500">
@@ -10242,10 +10242,10 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>   192920</v>
+        <v>  2575096</v>
       </c>
       <c r="E500" t="n">
-        <v>   291731</v>
+        <v>  1610010</v>
       </c>
     </row>
     <row r="501">
@@ -10259,10 +10259,10 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>   189351</v>
+        <v>  2617769</v>
       </c>
       <c r="E501" t="n">
-        <v>   296363</v>
+        <v>  1648478</v>
       </c>
     </row>
     <row r="502">
@@ -10276,10 +10276,10 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>   186103</v>
+        <v>  2660934</v>
       </c>
       <c r="E502" t="n">
-        <v>   301498</v>
+        <v>  1688987</v>
       </c>
     </row>
     <row r="503">
@@ -10293,10 +10293,10 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>   183350</v>
+        <v>  2704584</v>
       </c>
       <c r="E503" t="n">
-        <v>   307206</v>
+        <v>  1731633</v>
       </c>
     </row>
     <row r="504">
@@ -10310,10 +10310,10 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>   181005</v>
+        <v>  2748702</v>
       </c>
       <c r="E504" t="n">
-        <v>   313396</v>
+        <v>  1776507</v>
       </c>
     </row>
     <row r="505">
@@ -10327,10 +10327,10 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>   178969</v>
+        <v>  2792932</v>
       </c>
       <c r="E505" t="n">
-        <v>   319928</v>
+        <v>  1823485</v>
       </c>
     </row>
     <row r="506">
@@ -10344,10 +10344,10 @@
         <v>2000</v>
       </c>
       <c r="D506" t="n">
-        <v>  2268890</v>
+        <v>        0</v>
       </c>
       <c r="E506" t="n">
-        <v>  1369426</v>
+        <v>    41685</v>
       </c>
     </row>
     <row r="507">
@@ -10361,10 +10361,10 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>  2306879</v>
+        <v>        0</v>
       </c>
       <c r="E507" t="n">
-        <v>  1397166</v>
+        <v>    43317</v>
       </c>
     </row>
     <row r="508">
@@ -10378,10 +10378,10 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>  2343153</v>
+        <v>        0</v>
       </c>
       <c r="E508" t="n">
-        <v>  1424095</v>
+        <v>    44742</v>
       </c>
     </row>
     <row r="509">
@@ -10395,10 +10395,10 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>  2378817</v>
+        <v>        0</v>
       </c>
       <c r="E509" t="n">
-        <v>  1450819</v>
+        <v>    46032</v>
       </c>
     </row>
     <row r="510">
@@ -10412,10 +10412,10 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>  2415353</v>
+        <v>        0</v>
       </c>
       <c r="E510" t="n">
-        <v>  1478242</v>
+        <v>    47299</v>
       </c>
     </row>
     <row r="511">
@@ -10429,10 +10429,10 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>  2453142</v>
+        <v>        0</v>
       </c>
       <c r="E511" t="n">
-        <v>  1507755</v>
+        <v>    48623</v>
       </c>
     </row>
     <row r="512">
@@ -10446,10 +10446,10 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>  2492524</v>
+        <v>        0</v>
       </c>
       <c r="E512" t="n">
-        <v>  1539578</v>
+        <v>    50026</v>
       </c>
     </row>
     <row r="513">
@@ -10463,10 +10463,10 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>  2533216</v>
+        <v>        0</v>
       </c>
       <c r="E513" t="n">
-        <v>  1573681</v>
+        <v>    51472</v>
       </c>
     </row>
     <row r="514">
@@ -10480,10 +10480,10 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>  2575096</v>
+        <v>        0</v>
       </c>
       <c r="E514" t="n">
-        <v>  1610010</v>
+        <v>    52912</v>
       </c>
     </row>
     <row r="515">
@@ -10497,10 +10497,10 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>  2617769</v>
+        <v>        0</v>
       </c>
       <c r="E515" t="n">
-        <v>  1648478</v>
+        <v>    54275</v>
       </c>
     </row>
     <row r="516">
@@ -10514,10 +10514,10 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>  2660934</v>
+        <v>        0</v>
       </c>
       <c r="E516" t="n">
-        <v>  1688987</v>
+        <v>    55509</v>
       </c>
     </row>
     <row r="517">
@@ -10531,10 +10531,10 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>  2704584</v>
+        <v>        0</v>
       </c>
       <c r="E517" t="n">
-        <v>  1731633</v>
+        <v>    56601</v>
       </c>
     </row>
     <row r="518">
@@ -10548,10 +10548,10 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>  2748702</v>
+        <v>        0</v>
       </c>
       <c r="E518" t="n">
-        <v>  1776507</v>
+        <v>    57570</v>
       </c>
     </row>
     <row r="519">
@@ -10565,10 +10565,10 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>  2792932</v>
+        <v>        0</v>
       </c>
       <c r="E519" t="n">
-        <v>  1823485</v>
+        <v>    58435</v>
       </c>
     </row>
     <row r="520">
@@ -10582,10 +10582,10 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>        0</v>
+        <v>  6505031</v>
       </c>
       <c r="E520" t="n">
-        <v>    41685</v>
+        <v>  1796120</v>
       </c>
     </row>
     <row r="521">
@@ -10599,10 +10599,10 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>        0</v>
+        <v>  6752764</v>
       </c>
       <c r="E521" t="n">
-        <v>    43317</v>
+        <v>  1868153</v>
       </c>
     </row>
     <row r="522">
@@ -10616,10 +10616,10 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>        0</v>
+        <v>  7015473</v>
       </c>
       <c r="E522" t="n">
-        <v>    44742</v>
+        <v>  1944491</v>
       </c>
     </row>
     <row r="523">
@@ -10633,10 +10633,10 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>        0</v>
+        <v>  7287437</v>
       </c>
       <c r="E523" t="n">
-        <v>    46032</v>
+        <v>  2023797</v>
       </c>
     </row>
     <row r="524">
@@ -10650,10 +10650,10 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>        0</v>
+        <v>  7561142</v>
       </c>
       <c r="E524" t="n">
-        <v>    47299</v>
+        <v>  2103882</v>
       </c>
     </row>
     <row r="525">
@@ -10667,10 +10667,10 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>        0</v>
+        <v>  7831171</v>
       </c>
       <c r="E525" t="n">
-        <v>    48623</v>
+        <v>  2183242</v>
       </c>
     </row>
     <row r="526">
@@ -10684,10 +10684,10 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>        0</v>
+        <v>  8095513</v>
       </c>
       <c r="E526" t="n">
-        <v>    50026</v>
+        <v>  2261309</v>
       </c>
     </row>
     <row r="527">
@@ -10701,10 +10701,10 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>        0</v>
+        <v>  8355722</v>
       </c>
       <c r="E527" t="n">
-        <v>    51472</v>
+        <v>  2338644</v>
       </c>
     </row>
     <row r="528">
@@ -10718,10 +10718,10 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>        0</v>
+        <v>  8614810</v>
       </c>
       <c r="E528" t="n">
-        <v>    52912</v>
+        <v>  2415818</v>
       </c>
     </row>
     <row r="529">
@@ -10735,10 +10735,10 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>        0</v>
+        <v>  8877139</v>
       </c>
       <c r="E529" t="n">
-        <v>    54275</v>
+        <v>  2494186</v>
       </c>
     </row>
     <row r="530">
@@ -10752,10 +10752,10 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>        0</v>
+        <v>  9144202</v>
       </c>
       <c r="E530" t="n">
-        <v>    55509</v>
+        <v>  2576579</v>
       </c>
     </row>
     <row r="531">
@@ -10769,10 +10769,10 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>        0</v>
+        <v>  9416630</v>
       </c>
       <c r="E531" t="n">
-        <v>    56601</v>
+        <v>  2663407</v>
       </c>
     </row>
     <row r="532">
@@ -10786,10 +10786,10 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>        0</v>
+        <v>  9693518</v>
       </c>
       <c r="E532" t="n">
-        <v>    57570</v>
+        <v>  2754657</v>
       </c>
     </row>
     <row r="533">
@@ -10803,10 +10803,10 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>        0</v>
+        <v>  9974631</v>
       </c>
       <c r="E533" t="n">
-        <v>    58435</v>
+        <v>  2850683</v>
       </c>
     </row>
     <row r="534">
@@ -10820,10 +10820,10 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>  6505031</v>
+        <v>  2152335</v>
       </c>
       <c r="E534" t="n">
-        <v>  1796120</v>
+        <v> 13302067</v>
       </c>
     </row>
     <row r="535">
@@ -10837,10 +10837,10 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>  6752764</v>
+        <v>  2132730</v>
       </c>
       <c r="E535" t="n">
-        <v>  1868153</v>
+        <v> 13506559</v>
       </c>
     </row>
     <row r="536">
@@ -10854,10 +10854,10 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>  7015473</v>
+        <v>  2112223</v>
       </c>
       <c r="E536" t="n">
-        <v>  1944491</v>
+        <v> 13707299</v>
       </c>
     </row>
     <row r="537">
@@ -10871,10 +10871,10 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>  7287437</v>
+        <v>  2091912</v>
       </c>
       <c r="E537" t="n">
-        <v>  2023797</v>
+        <v> 13903746</v>
       </c>
     </row>
     <row r="538">
@@ -10888,10 +10888,10 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>  7561142</v>
+        <v>  2071637</v>
       </c>
       <c r="E538" t="n">
-        <v>  2103882</v>
+        <v> 14096604</v>
       </c>
     </row>
     <row r="539">
@@ -10905,10 +10905,10 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>  7831171</v>
+        <v>  2051531</v>
       </c>
       <c r="E539" t="n">
-        <v>  2183242</v>
+        <v> 14286218</v>
       </c>
     </row>
     <row r="540">
@@ -10922,10 +10922,10 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>  8095513</v>
+        <v>  2031873</v>
       </c>
       <c r="E540" t="n">
-        <v>  2261309</v>
+        <v> 14472657</v>
       </c>
     </row>
     <row r="541">
@@ -10939,10 +10939,10 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>  8355722</v>
+        <v>  2012602</v>
       </c>
       <c r="E541" t="n">
-        <v>  2338644</v>
+        <v> 14656290</v>
       </c>
     </row>
     <row r="542">
@@ -10956,10 +10956,10 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>  8614810</v>
+        <v>  1993654</v>
       </c>
       <c r="E542" t="n">
-        <v>  2415818</v>
+        <v> 14837530</v>
       </c>
     </row>
     <row r="543">
@@ -10973,10 +10973,10 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>  8877139</v>
+        <v>  1975288</v>
       </c>
       <c r="E543" t="n">
-        <v>  2494186</v>
+        <v> 15016441</v>
       </c>
     </row>
     <row r="544">
@@ -10990,10 +10990,10 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>  9144202</v>
+        <v>  1957588</v>
       </c>
       <c r="E544" t="n">
-        <v>  2576579</v>
+        <v> 15193172</v>
       </c>
     </row>
     <row r="545">
@@ -11007,10 +11007,10 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>  9416630</v>
+        <v>  1940277</v>
       </c>
       <c r="E545" t="n">
-        <v>  2663407</v>
+        <v> 15368172</v>
       </c>
     </row>
     <row r="546">
@@ -11024,10 +11024,10 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>  9693518</v>
+        <v>  1923575</v>
       </c>
       <c r="E546" t="n">
-        <v>  2754657</v>
+        <v> 15541239</v>
       </c>
     </row>
     <row r="547">
@@ -11041,10 +11041,10 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>  9974631</v>
+        <v>  1907333</v>
       </c>
       <c r="E547" t="n">
-        <v>  2850683</v>
+        <v> 15712375</v>
       </c>
     </row>
     <row r="548">
@@ -11058,10 +11058,10 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>  2152335</v>
+        <v>809645853</v>
       </c>
       <c r="E548" t="n">
-        <v> 13302067</v>
+        <v>452999147</v>
       </c>
     </row>
     <row r="549">
@@ -11075,10 +11075,10 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>  2132730</v>
+        <v>800082679</v>
       </c>
       <c r="E549" t="n">
-        <v> 13506559</v>
+        <v>471767321</v>
       </c>
     </row>
     <row r="550">
@@ -11092,10 +11092,10 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>  2112223</v>
+        <v>788406300</v>
       </c>
       <c r="E550" t="n">
-        <v> 13707299</v>
+        <v>491993700</v>
       </c>
     </row>
     <row r="551">
@@ -11109,10 +11109,10 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>  2091912</v>
+        <v>775926016</v>
       </c>
       <c r="E551" t="n">
-        <v> 13903746</v>
+        <v>512473984</v>
       </c>
     </row>
     <row r="552">
@@ -11126,10 +11126,10 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>  2071637</v>
+        <v>762817902</v>
       </c>
       <c r="E552" t="n">
-        <v> 14096604</v>
+        <v>533257098</v>
       </c>
     </row>
     <row r="553">
@@ -11143,10 +11143,10 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>  2051531</v>
+        <v>749352182</v>
       </c>
       <c r="E553" t="n">
-        <v> 14286218</v>
+        <v>554367818</v>
       </c>
     </row>
     <row r="554">
@@ -11160,10 +11160,10 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>  2031873</v>
+        <v>735901746</v>
       </c>
       <c r="E554" t="n">
-        <v> 14472657</v>
+        <v>575118254</v>
       </c>
     </row>
     <row r="555">
@@ -11177,10 +11177,10 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>  2012602</v>
+        <v>722214159</v>
       </c>
       <c r="E555" t="n">
-        <v> 14656290</v>
+        <v>595670841</v>
       </c>
     </row>
     <row r="556">
@@ -11194,10 +11194,10 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>  1993654</v>
+        <v>708173810</v>
       </c>
       <c r="E556" t="n">
-        <v> 14837530</v>
+        <v>616481190</v>
       </c>
     </row>
     <row r="557">
@@ -11211,10 +11211,10 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>  1975288</v>
+        <v>693852712</v>
       </c>
       <c r="E557" t="n">
-        <v> 15016441</v>
+        <v>637407288</v>
       </c>
     </row>
     <row r="558">
@@ -11228,10 +11228,10 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>  1957588</v>
+        <v>679206337</v>
       </c>
       <c r="E558" t="n">
-        <v> 15193172</v>
+        <v>658498663</v>
       </c>
     </row>
     <row r="559">
@@ -11245,10 +11245,10 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>  1940277</v>
+        <v>664363135</v>
       </c>
       <c r="E559" t="n">
-        <v> 15368172</v>
+        <v>679766865</v>
       </c>
     </row>
     <row r="560">
@@ -11262,10 +11262,10 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>  1923575</v>
+        <v>649832871</v>
       </c>
       <c r="E560" t="n">
-        <v> 15541239</v>
+        <v>700862129</v>
       </c>
     </row>
     <row r="561">
@@ -11279,10 +11279,10 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>  1907333</v>
+        <v>635688202</v>
       </c>
       <c r="E561" t="n">
-        <v> 15712375</v>
+        <v>721691798</v>
       </c>
     </row>
     <row r="562">
@@ -11296,10 +11296,10 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>809645853</v>
+        <v> 11141512</v>
       </c>
       <c r="E562" t="n">
-        <v>452999147</v>
+        <v> 28756472</v>
       </c>
     </row>
     <row r="563">
@@ -11313,10 +11313,10 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>800082679</v>
+        <v> 11202299</v>
       </c>
       <c r="E563" t="n">
-        <v>471767321</v>
+        <v> 29356349</v>
       </c>
     </row>
     <row r="564">
@@ -11330,10 +11330,10 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>788406300</v>
+        <v> 11259058</v>
       </c>
       <c r="E564" t="n">
-        <v>491993700</v>
+        <v> 29957246</v>
       </c>
     </row>
     <row r="565">
@@ -11347,10 +11347,10 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>775926016</v>
+        <v> 11312153</v>
       </c>
       <c r="E565" t="n">
-        <v>512473984</v>
+        <v> 30559898</v>
       </c>
     </row>
     <row r="566">
@@ -11364,10 +11364,10 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>762817902</v>
+        <v> 11361680</v>
       </c>
       <c r="E566" t="n">
-        <v>533257098</v>
+        <v> 31165943</v>
       </c>
     </row>
     <row r="567">
@@ -11381,10 +11381,10 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>749352182</v>
+        <v> 11408788</v>
       </c>
       <c r="E567" t="n">
-        <v>554367818</v>
+        <v> 31775238</v>
       </c>
     </row>
     <row r="568">
@@ -11398,10 +11398,10 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>735901746</v>
+        <v> 11453119</v>
       </c>
       <c r="E568" t="n">
-        <v>575118254</v>
+        <v> 32388251</v>
       </c>
     </row>
     <row r="569">
@@ -11415,10 +11415,10 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>722214159</v>
+        <v> 11494379</v>
       </c>
       <c r="E569" t="n">
-        <v>595670841</v>
+        <v> 33004011</v>
       </c>
     </row>
     <row r="570">
@@ -11432,10 +11432,10 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>708173810</v>
+        <v> 11532086</v>
       </c>
       <c r="E570" t="n">
-        <v>616481190</v>
+        <v> 33620951</v>
       </c>
     </row>
     <row r="571">
@@ -11449,10 +11449,10 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>693852712</v>
+        <v> 11565605</v>
       </c>
       <c r="E571" t="n">
-        <v>637407288</v>
+        <v> 34236956</v>
       </c>
     </row>
     <row r="572">
@@ -11466,10 +11466,10 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>679206337</v>
+        <v> 11594479</v>
       </c>
       <c r="E572" t="n">
-        <v>658498663</v>
+        <v> 34850319</v>
       </c>
     </row>
     <row r="573">
@@ -11483,10 +11483,10 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>664363135</v>
+        <v> 11618575</v>
       </c>
       <c r="E573" t="n">
-        <v>679766865</v>
+        <v> 35460217</v>
       </c>
     </row>
     <row r="574">
@@ -11500,10 +11500,10 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>649832871</v>
+        <v> 11638449</v>
       </c>
       <c r="E574" t="n">
-        <v>700862129</v>
+        <v> 36065978</v>
       </c>
     </row>
     <row r="575">
@@ -11517,10 +11517,10 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>635688202</v>
+        <v> 11653673</v>
       </c>
       <c r="E575" t="n">
-        <v>721691798</v>
+        <v> 36667732</v>
       </c>
     </row>
     <row r="576">
@@ -11534,10 +11534,10 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v> 11141512</v>
+        <v>   379962</v>
       </c>
       <c r="E576" t="n">
-        <v> 28756472</v>
+        <v>   148350</v>
       </c>
     </row>
     <row r="577">
@@ -11551,10 +11551,10 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v> 11202299</v>
+        <v>   390028</v>
       </c>
       <c r="E577" t="n">
-        <v> 29356349</v>
+        <v>   151948</v>
       </c>
     </row>
     <row r="578">
@@ -11568,10 +11568,10 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v> 11259058</v>
+        <v>   400385</v>
       </c>
       <c r="E578" t="n">
-        <v> 29957246</v>
+        <v>   155643</v>
       </c>
     </row>
     <row r="579">
@@ -11585,10 +11585,10 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v> 11312153</v>
+        <v>   411056</v>
       </c>
       <c r="E579" t="n">
-        <v> 30559898</v>
+        <v>   159435</v>
       </c>
     </row>
     <row r="580">
@@ -11602,10 +11602,10 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v> 11361680</v>
+        <v>   422048</v>
       </c>
       <c r="E580" t="n">
-        <v> 31165943</v>
+        <v>   163341</v>
       </c>
     </row>
     <row r="581">
@@ -11619,10 +11619,10 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v> 11408788</v>
+        <v>   433291</v>
       </c>
       <c r="E581" t="n">
-        <v> 31775238</v>
+        <v>   167442</v>
       </c>
     </row>
     <row r="582">
@@ -11636,10 +11636,10 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v> 11453119</v>
+        <v>   444793</v>
       </c>
       <c r="E582" t="n">
-        <v> 32388251</v>
+        <v>   171733</v>
       </c>
     </row>
     <row r="583">
@@ -11653,10 +11653,10 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v> 11494379</v>
+        <v>   456513</v>
       </c>
       <c r="E583" t="n">
-        <v> 33004011</v>
+        <v>   176223</v>
       </c>
     </row>
     <row r="584">
@@ -11670,10 +11670,10 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v> 11532086</v>
+        <v>   468399</v>
       </c>
       <c r="E584" t="n">
-        <v> 33620951</v>
+        <v>   180892</v>
       </c>
     </row>
     <row r="585">
@@ -11687,10 +11687,10 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v> 11565605</v>
+        <v>   480376</v>
       </c>
       <c r="E585" t="n">
-        <v> 34236956</v>
+        <v>   185721</v>
       </c>
     </row>
     <row r="586">
@@ -11704,10 +11704,10 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v> 11594479</v>
+        <v>   492378</v>
       </c>
       <c r="E586" t="n">
-        <v> 34850319</v>
+        <v>   190703</v>
       </c>
     </row>
     <row r="587">
@@ -11721,10 +11721,10 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v> 11618575</v>
+        <v>   504394</v>
       </c>
       <c r="E587" t="n">
-        <v> 35460217</v>
+        <v>   195822</v>
       </c>
     </row>
     <row r="588">
@@ -11738,10 +11738,10 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v> 11638449</v>
+        <v>   516394</v>
       </c>
       <c r="E588" t="n">
-        <v> 36065978</v>
+        <v>   201109</v>
       </c>
     </row>
     <row r="589">
@@ -11755,10 +11755,10 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v> 11653673</v>
+        <v>   528376</v>
       </c>
       <c r="E589" t="n">
-        <v> 36667732</v>
+        <v>   206541</v>
       </c>
     </row>
     <row r="590">
@@ -11772,10 +11772,10 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>   379962</v>
+        <v>  1291279</v>
       </c>
       <c r="E590" t="n">
-        <v>   148350</v>
+        <v>  1834925</v>
       </c>
     </row>
     <row r="591">
@@ -11789,10 +11789,10 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>   390028</v>
+        <v>  1309310</v>
       </c>
       <c r="E591" t="n">
-        <v>   151948</v>
+        <v>  1896326</v>
       </c>
     </row>
     <row r="592">
@@ -11806,10 +11806,10 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>   400385</v>
+        <v>  1326064</v>
       </c>
       <c r="E592" t="n">
-        <v>   155643</v>
+        <v>  1957655</v>
       </c>
     </row>
     <row r="593">
@@ -11823,10 +11823,10 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>   411056</v>
+        <v>  1342811</v>
       </c>
       <c r="E593" t="n">
-        <v>   159435</v>
+        <v>  2020607</v>
       </c>
     </row>
     <row r="594">
@@ -11840,10 +11840,10 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>   422048</v>
+        <v>  1361165</v>
       </c>
       <c r="E594" t="n">
-        <v>   163341</v>
+        <v>  2087703</v>
       </c>
     </row>
     <row r="595">
@@ -11857,10 +11857,10 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>   433291</v>
+        <v>  1382143</v>
       </c>
       <c r="E595" t="n">
-        <v>   167442</v>
+        <v>  2160724</v>
       </c>
     </row>
     <row r="596">
@@ -11874,10 +11874,10 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>   444793</v>
+        <v>  1406113</v>
       </c>
       <c r="E596" t="n">
-        <v>   171733</v>
+        <v>  2240540</v>
       </c>
     </row>
     <row r="597">
@@ -11891,10 +11891,10 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>   456513</v>
+        <v>  1432388</v>
       </c>
       <c r="E597" t="n">
-        <v>   176223</v>
+        <v>  2326470</v>
       </c>
     </row>
     <row r="598">
@@ -11908,10 +11908,10 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>   468399</v>
+        <v>  1459842</v>
       </c>
       <c r="E598" t="n">
-        <v>   180892</v>
+        <v>  2416633</v>
       </c>
     </row>
     <row r="599">
@@ -11925,10 +11925,10 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>   480376</v>
+        <v>  1486754</v>
       </c>
       <c r="E599" t="n">
-        <v>   185721</v>
+        <v>  2508392</v>
       </c>
     </row>
     <row r="600">
@@ -11942,10 +11942,10 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>   492378</v>
+        <v>  1511960</v>
       </c>
       <c r="E600" t="n">
-        <v>   190703</v>
+        <v>  2599755</v>
       </c>
     </row>
     <row r="601">
@@ -11959,10 +11959,10 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>   504394</v>
+        <v>  1535242</v>
       </c>
       <c r="E601" t="n">
-        <v>   195822</v>
+        <v>  2690117</v>
       </c>
     </row>
     <row r="602">
@@ -11976,10 +11976,10 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>   516394</v>
+        <v>  1557001</v>
       </c>
       <c r="E602" t="n">
-        <v>   201109</v>
+        <v>  2780050</v>
       </c>
     </row>
     <row r="603">
@@ -11993,10 +11993,10 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>   528376</v>
+        <v>  1577531</v>
       </c>
       <c r="E603" t="n">
-        <v>   206541</v>
+        <v>  2870101</v>
       </c>
     </row>
     <row r="604">
@@ -12010,10 +12010,10 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>  1291279</v>
+        <v>  1609206</v>
       </c>
       <c r="E604" t="n">
-        <v>  1834925</v>
+        <v>  2320382</v>
       </c>
     </row>
     <row r="605">
@@ -12027,10 +12027,10 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>  1309310</v>
+        <v>  1589060</v>
       </c>
       <c r="E605" t="n">
-        <v>  1896326</v>
+        <v>  2424428</v>
       </c>
     </row>
     <row r="606">
@@ -12044,10 +12044,10 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>  1326064</v>
+        <v>  1565853</v>
       </c>
       <c r="E606" t="n">
-        <v>  1957655</v>
+        <v>  2527987</v>
       </c>
     </row>
     <row r="607">
@@ -12061,10 +12061,10 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>  1342811</v>
+        <v>  1540112</v>
       </c>
       <c r="E607" t="n">
-        <v>  2020607</v>
+        <v>  2631033</v>
       </c>
     </row>
     <row r="608">
@@ -12078,10 +12078,10 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>  1361165</v>
+        <v>  1512333</v>
       </c>
       <c r="E608" t="n">
-        <v>  2087703</v>
+        <v>  2734003</v>
       </c>
     </row>
     <row r="609">
@@ -12095,10 +12095,10 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>  1382143</v>
+        <v>  1483144</v>
       </c>
       <c r="E609" t="n">
-        <v>  2160724</v>
+        <v>  2836986</v>
       </c>
     </row>
     <row r="610">
@@ -12112,10 +12112,10 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>  1406113</v>
+        <v>  1452510</v>
       </c>
       <c r="E610" t="n">
-        <v>  2240540</v>
+        <v>  2939983</v>
       </c>
     </row>
     <row r="611">
@@ -12129,10 +12129,10 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>  1432388</v>
+        <v>  1420556</v>
       </c>
       <c r="E611" t="n">
-        <v>  2326470</v>
+        <v>  3042670</v>
       </c>
     </row>
     <row r="612">
@@ -12146,10 +12146,10 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>  1459842</v>
+        <v>  1387599</v>
       </c>
       <c r="E612" t="n">
-        <v>  2416633</v>
+        <v>  3145112</v>
       </c>
     </row>
     <row r="613">
@@ -12163,10 +12163,10 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>  1486754</v>
+        <v>  1354061</v>
       </c>
       <c r="E613" t="n">
-        <v>  2508392</v>
+        <v>  3247363</v>
       </c>
     </row>
     <row r="614">
@@ -12180,10 +12180,10 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>  1511960</v>
+        <v>  1319933</v>
       </c>
       <c r="E614" t="n">
-        <v>  2599755</v>
+        <v>  3349752</v>
       </c>
     </row>
     <row r="615">
@@ -12197,10 +12197,10 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>  1535242</v>
+        <v>  1285522</v>
       </c>
       <c r="E615" t="n">
-        <v>  2690117</v>
+        <v>  3452158</v>
       </c>
     </row>
     <row r="616">
@@ -12214,10 +12214,10 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>  1557001</v>
+        <v>  1252260</v>
       </c>
       <c r="E616" t="n">
-        <v>  2780050</v>
+        <v>  3553035</v>
       </c>
     </row>
     <row r="617">
@@ -12231,10 +12231,10 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>  1577531</v>
+        <v>  1220185</v>
       </c>
       <c r="E617" t="n">
-        <v>  2870101</v>
+        <v>  3651981</v>
       </c>
     </row>
     <row r="618">
@@ -12248,10 +12248,10 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>  1609206</v>
+        <v>  9107589</v>
       </c>
       <c r="E618" t="n">
-        <v>  2320382</v>
+        <v>  7023743</v>
       </c>
     </row>
     <row r="619">
@@ -12265,10 +12265,10 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>  1589060</v>
+        <v>  9163278</v>
       </c>
       <c r="E619" t="n">
-        <v>  2424428</v>
+        <v>  7256895</v>
       </c>
     </row>
     <row r="620">
@@ -12282,10 +12282,10 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>  1565853</v>
+        <v>  9195755</v>
       </c>
       <c r="E620" t="n">
-        <v>  2527987</v>
+        <v>  7479232</v>
       </c>
     </row>
     <row r="621">
@@ -12299,10 +12299,10 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>  1540112</v>
+        <v>  9213643</v>
       </c>
       <c r="E621" t="n">
-        <v>  2631033</v>
+        <v>  7696158</v>
       </c>
     </row>
     <row r="622">
@@ -12316,10 +12316,10 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>  1512333</v>
+        <v>  9227933</v>
       </c>
       <c r="E622" t="n">
-        <v>  2734003</v>
+        <v>  7916392</v>
       </c>
     </row>
     <row r="623">
@@ -12333,10 +12333,10 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>  1483144</v>
+        <v>  9247343</v>
       </c>
       <c r="E623" t="n">
-        <v>  2836986</v>
+        <v>  8146651</v>
       </c>
     </row>
     <row r="624">
@@ -12350,10 +12350,10 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>  1452510</v>
+        <v>  9272769</v>
       </c>
       <c r="E624" t="n">
-        <v>  2939983</v>
+        <v>  8389648</v>
       </c>
     </row>
     <row r="625">
@@ -12367,10 +12367,10 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>  1420556</v>
+        <v>  9285767</v>
       </c>
       <c r="E625" t="n">
-        <v>  3042670</v>
+        <v>  8663294</v>
       </c>
     </row>
     <row r="626">
@@ -12384,10 +12384,10 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>  1387599</v>
+        <v>  9306414</v>
       </c>
       <c r="E626" t="n">
-        <v>  3145112</v>
+        <v>  8953630</v>
       </c>
     </row>
     <row r="627">
@@ -12401,10 +12401,10 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>  1354061</v>
+        <v>  9337874</v>
       </c>
       <c r="E627" t="n">
-        <v>  3247363</v>
+        <v>  9263468</v>
       </c>
     </row>
     <row r="628">
@@ -12418,10 +12418,10 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>  1319933</v>
+        <v>  9382594</v>
       </c>
       <c r="E628" t="n">
-        <v>  3349752</v>
+        <v>  9593994</v>
       </c>
     </row>
     <row r="629">
@@ -12435,10 +12435,10 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>  1285522</v>
+        <v>  9441938</v>
       </c>
       <c r="E629" t="n">
-        <v>  3452158</v>
+        <v>  9948016</v>
       </c>
     </row>
     <row r="630">
@@ -12452,10 +12452,10 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>  1252260</v>
+        <v>  9514946</v>
       </c>
       <c r="E630" t="n">
-        <v>  3553035</v>
+        <v> 10324804</v>
       </c>
     </row>
     <row r="631">
@@ -12469,10 +12469,10 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>  1220185</v>
+        <v>  9596100</v>
       </c>
       <c r="E631" t="n">
-        <v>  3651981</v>
+        <v> 10719986</v>
       </c>
     </row>
     <row r="632">
@@ -49264,10 +49264,10 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v> 16156725</v>
+        <v> 12572963</v>
       </c>
       <c r="E2802" t="n">
-        <v> 33019123</v>
+        <v> 46319551</v>
       </c>
     </row>
     <row r="2803">
@@ -49281,10 +49281,10 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v> 15976584</v>
+        <v> 12562339</v>
       </c>
       <c r="E2803" t="n">
-        <v> 32707281</v>
+        <v> 46557334</v>
       </c>
     </row>
     <row r="2804">
@@ -49298,10 +49298,10 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v> 15770412</v>
+        <v> 12439896</v>
       </c>
       <c r="E2804" t="n">
-        <v> 32432088</v>
+        <v> 46930583</v>
       </c>
     </row>
     <row r="2805">
@@ -49315,10 +49315,10 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v> 15574112</v>
+        <v> 12323786</v>
       </c>
       <c r="E2805" t="n">
-        <v> 32238838</v>
+        <v> 47323791</v>
       </c>
     </row>
     <row r="2806">
@@ -49332,10 +49332,10 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v> 15375742</v>
+        <v> 12220136</v>
       </c>
       <c r="E2806" t="n">
-        <v> 32075858</v>
+        <v> 47767769</v>
       </c>
     </row>
     <row r="2807">
@@ -49349,10 +49349,10 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v> 15172569</v>
+        <v> 12131582</v>
       </c>
       <c r="E2807" t="n">
-        <v> 31932581</v>
+        <v> 48269624</v>
       </c>
     </row>
     <row r="2808">
@@ -49366,10 +49366,10 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v> 14986584</v>
+        <v> 12048279</v>
       </c>
       <c r="E2808" t="n">
-        <v> 31801166</v>
+        <v> 48798541</v>
       </c>
     </row>
     <row r="2809">
@@ -49383,10 +49383,10 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v> 14814623</v>
+        <v> 11970758</v>
       </c>
       <c r="E2809" t="n">
-        <v> 31694727</v>
+        <v> 49351705</v>
       </c>
     </row>
     <row r="2810">
@@ -49400,10 +49400,10 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v> 14652285</v>
+        <v> 11893520</v>
       </c>
       <c r="E2810" t="n">
-        <v> 31605915</v>
+        <v> 49913475</v>
       </c>
     </row>
     <row r="2811">
@@ -49417,10 +49417,10 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v> 14505868</v>
+        <v> 11813186</v>
       </c>
       <c r="E2811" t="n">
-        <v> 31547432</v>
+        <v> 50463084</v>
       </c>
     </row>
     <row r="2812">
@@ -49434,10 +49434,10 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v> 14363951</v>
+        <v> 11736055</v>
       </c>
       <c r="E2812" t="n">
-        <v> 31506749</v>
+        <v> 51030310</v>
       </c>
     </row>
     <row r="2813">
@@ -49451,10 +49451,10 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v> 14225567</v>
+        <v> 11658619</v>
       </c>
       <c r="E2813" t="n">
-        <v> 31480533</v>
+        <v> 51600299</v>
       </c>
     </row>
     <row r="2814">
@@ -49468,10 +49468,10 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v> 14101096</v>
+        <v> 11570959</v>
       </c>
       <c r="E2814" t="n">
-        <v> 31492204</v>
+        <v> 52124728</v>
       </c>
     </row>
     <row r="2815">
@@ -49485,10 +49485,10 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v> 13977134</v>
+        <v> 11478506</v>
       </c>
       <c r="E2815" t="n">
-        <v> 31512466</v>
+        <v> 52618579</v>
       </c>
     </row>
     <row r="2816">
@@ -49502,10 +49502,10 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v> 12572963</v>
+        <v> 16156725</v>
       </c>
       <c r="E2816" t="n">
-        <v> 46319551</v>
+        <v> 33019123</v>
       </c>
     </row>
     <row r="2817">
@@ -49519,10 +49519,10 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v> 12562339</v>
+        <v> 15976584</v>
       </c>
       <c r="E2817" t="n">
-        <v> 46557334</v>
+        <v> 32707281</v>
       </c>
     </row>
     <row r="2818">
@@ -49536,10 +49536,10 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v> 12439896</v>
+        <v> 15770412</v>
       </c>
       <c r="E2818" t="n">
-        <v> 46930583</v>
+        <v> 32432088</v>
       </c>
     </row>
     <row r="2819">
@@ -49553,10 +49553,10 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v> 12323786</v>
+        <v> 15574112</v>
       </c>
       <c r="E2819" t="n">
-        <v> 47323791</v>
+        <v> 32238838</v>
       </c>
     </row>
     <row r="2820">
@@ -49570,10 +49570,10 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v> 12220136</v>
+        <v> 15375742</v>
       </c>
       <c r="E2820" t="n">
-        <v> 47767769</v>
+        <v> 32075858</v>
       </c>
     </row>
     <row r="2821">
@@ -49587,10 +49587,10 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v> 12131582</v>
+        <v> 15172569</v>
       </c>
       <c r="E2821" t="n">
-        <v> 48269624</v>
+        <v> 31932581</v>
       </c>
     </row>
     <row r="2822">
@@ -49604,10 +49604,10 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v> 12048279</v>
+        <v> 14986584</v>
       </c>
       <c r="E2822" t="n">
-        <v> 48798541</v>
+        <v> 31801166</v>
       </c>
     </row>
     <row r="2823">
@@ -49621,10 +49621,10 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v> 11970758</v>
+        <v> 14814623</v>
       </c>
       <c r="E2823" t="n">
-        <v> 49351705</v>
+        <v> 31694727</v>
       </c>
     </row>
     <row r="2824">
@@ -49638,10 +49638,10 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v> 11893520</v>
+        <v> 14652285</v>
       </c>
       <c r="E2824" t="n">
-        <v> 49913475</v>
+        <v> 31605915</v>
       </c>
     </row>
     <row r="2825">
@@ -49655,10 +49655,10 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v> 11813186</v>
+        <v> 14505868</v>
       </c>
       <c r="E2825" t="n">
-        <v> 50463084</v>
+        <v> 31547432</v>
       </c>
     </row>
     <row r="2826">
@@ -49672,10 +49672,10 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v> 11736055</v>
+        <v> 14363951</v>
       </c>
       <c r="E2826" t="n">
-        <v> 51030310</v>
+        <v> 31506749</v>
       </c>
     </row>
     <row r="2827">
@@ -49689,10 +49689,10 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v> 11658619</v>
+        <v> 14225567</v>
       </c>
       <c r="E2827" t="n">
-        <v> 51600299</v>
+        <v> 31480533</v>
       </c>
     </row>
     <row r="2828">
@@ -49706,10 +49706,10 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v> 11570959</v>
+        <v> 14101096</v>
       </c>
       <c r="E2828" t="n">
-        <v> 52124728</v>
+        <v> 31492204</v>
       </c>
     </row>
     <row r="2829">
@@ -49723,10 +49723,10 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v> 11478506</v>
+        <v> 13977134</v>
       </c>
       <c r="E2829" t="n">
-        <v> 52618579</v>
+        <v> 31512466</v>
       </c>
     </row>
     <row r="2830">
